--- a/Simulation/simulationScripts/03Simulation_result_analysis/Obesity_Stat_on_qmd_permutation_on_total_abundance_change_stat.xlsx
+++ b/Simulation/simulationScripts/03Simulation_result_analysis/Obesity_Stat_on_qmd_permutation_on_total_abundance_change_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\xingyinliu_lab\QMD\QMD\Simulation\simulationScripts\03Simulation_result_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959E0368-54DE-4164-BB3E-FCA99D7BFBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1037A0E4-607F-4B6D-86C8-7970FAE33037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1771,7 +1771,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2892,16 +2892,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2928,16 +2928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13261,7 +13261,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="B1:B1048576 G1:G1048576"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
